--- a/class_schedule.xlsx
+++ b/class_schedule.xlsx
@@ -76,31 +76,103 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>10：00～12：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>00</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>14：00  ~16：</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>00  ~16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -196,7 +268,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -206,6 +278,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,18 +305,19 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -292,9 +369,7 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
@@ -341,7 +416,9 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
@@ -428,12 +505,12 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/class_schedule.xlsx
+++ b/class_schedule.xlsx
@@ -46,7 +46,7 @@
     <t>星期日</t>
   </si>
   <si>
-    <t>第一次课（08：10～10：10）</t>
+    <t>第一次课（08：10～10：00）</t>
   </si>
   <si>
     <t>物理</t>
@@ -58,13 +58,13 @@
     <t>英语</t>
   </si>
   <si>
-    <t>第二次课（10：30～12：30）</t>
-  </si>
-  <si>
-    <t>第三次课（13：30～15：30）</t>
-  </si>
-  <si>
-    <t>第四次课（15：50～17：50）</t>
+    <t>第二次课（10：20～12：10）</t>
+  </si>
+  <si>
+    <t>第三次课（13：40～15：30）</t>
+  </si>
+  <si>
+    <t>第四次课（15：50～17：40）</t>
   </si>
   <si>
     <t>初中部</t>
@@ -78,13 +78,46 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>10</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -94,34 +127,26 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>00</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
@@ -130,38 +155,8 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
       </rPr>
       <t>00  ~16</t>
     </r>
@@ -268,20 +263,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,19 +292,19 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,7 +403,7 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -505,12 +492,12 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/class_schedule.xlsx
+++ b/class_schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
   <si>
     <t>高中部</t>
   </si>
@@ -70,51 +70,15 @@
     <t>初中部</t>
   </si>
   <si>
+    <t>第一次课（10：00～12：00）</t>
+  </si>
+  <si>
+    <t>第二次课（14：00～16：00）</t>
+  </si>
+  <si>
     <t>小学部</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>12</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -122,7 +86,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>：</t>
+      <t>10：00～12：</t>
     </r>
     <r>
       <rPr>
@@ -138,36 +102,11 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>00  ~16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>：</t>
+      <t>14：00 ~ 16：</t>
     </r>
     <r>
       <rPr>
@@ -187,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -214,11 +153,6 @@
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -289,22 +223,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -419,59 +353,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
@@ -485,20 +400,29 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/class_schedule.xlsx
+++ b/class_schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
   <si>
     <t>高中部</t>
   </si>
@@ -46,7 +46,7 @@
     <t>星期日</t>
   </si>
   <si>
-    <t>第一次课（08：10～10：00）</t>
+    <t>第一节课（08：30～09：15）</t>
   </si>
   <si>
     <t>物理</t>
@@ -58,22 +58,490 @@
     <t>英语</t>
   </si>
   <si>
-    <t>第二次课（10：20～12：10）</t>
-  </si>
-  <si>
-    <t>第三次课（13：40～15：30）</t>
-  </si>
-  <si>
-    <t>第四次课（15：50～17：40）</t>
+    <t>第二节课（09：25～10：10）</t>
+  </si>
+  <si>
+    <t>第三节课（10：20～11：05）</t>
+  </si>
+  <si>
+    <t>第四节课（11：15～12：00）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>第五节课（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>第六节课（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>第七节课（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>第八节课（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>初中部</t>
   </si>
   <si>
-    <t>第一次课（10：00～12：00）</t>
-  </si>
-  <si>
-    <t>第二次课（14：00～16：00）</t>
+    <t>第一节课（10：00～10：40）</t>
+  </si>
+  <si>
+    <t>第二节课（10：50～11：00）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>第三节课（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>第四节课（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>小学部</t>
@@ -82,31 +550,121 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>10：00～12：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>00</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>14：00 ~ 16：</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -126,7 +684,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -153,6 +711,11 @@
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,12 +760,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -223,22 +794,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,13 +846,22 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -290,24 +869,26 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,22 +896,25 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,89 +924,222 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/class_schedule.xlsx
+++ b/class_schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="26">
   <si>
     <t>高中部</t>
   </si>
@@ -77,7 +77,155 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>第六节课（14：50～15：</t>
+      <t>第六节课（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：30）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>第七节课（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：20）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>第八节课（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -91,87 +239,29 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>第七节课（15：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>0～16：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>第八节课（16：30～17：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>）</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：10）</t>
     </r>
   </si>
   <si>
@@ -194,135 +284,68 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>第四节课（14：50～15：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>0）</t>
+      <t>第四节课（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>：30）</t>
     </r>
   </si>
   <si>
     <t>小学部</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>50</t>
-    </r>
-  </si>
-  <si>
-    <t>11：00～11：40</t>
-  </si>
-  <si>
-    <t>14：00～14：40</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>14：50～15：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
+    <t>语文</t>
   </si>
 </sst>
 </file>
@@ -332,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -365,18 +388,6 @@
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -420,7 +431,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -430,10 +441,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -462,14 +469,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,22 +802,34 @@
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
